--- a/Inputs/Fidelity_United_Nextcare/info.xlsx
+++ b/Inputs/Fidelity_United_Nextcare/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -43,25 +43,19 @@
     <t xml:space="preserve">frequencies</t>
   </si>
   <si>
-    <t xml:space="preserve">addons</t>
-  </si>
-  <si>
     <t xml:space="preserve">fidelity_united</t>
   </si>
   <si>
-    <t xml:space="preserve">NE_Dubai/AbuDhabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
+    <t xml:space="preserve">AbuDhabi/NE_Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
   </si>
 </sst>
 </file>
@@ -254,17 +248,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -286,33 +280,29 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>3.6725</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
